--- a/excel/Data Visualization.xlsx
+++ b/excel/Data Visualization.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kctey/Desktop/NUS Y4S1/BN4101/UK_Biobank/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AEB95AC-337F-DB4F-BF53-C8DB676EC19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCF572-3248-0842-B0CD-050A3FC95A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="740" windowWidth="26980" windowHeight="17260" activeTab="1" xr2:uid="{993A0D2A-FC8F-3F48-A30B-31E9EC5FD718}"/>
+    <workbookView xWindow="1800" yWindow="740" windowWidth="26980" windowHeight="17260" activeTab="1" xr2:uid="{993A0D2A-FC8F-3F48-A30B-31E9EC5FD718}"/>
   </bookViews>
   <sheets>
     <sheet name="UKGenderProportion" sheetId="1" r:id="rId1"/>
     <sheet name="DatasetGenderProportion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">DatasetGenderProportion!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">DatasetGenderProportion!$A$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">DatasetGenderProportion!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">DatasetGenderProportion!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">DatasetGenderProportion!$B$3:$D$3</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -274,7 +267,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -308,7 +300,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -342,7 +333,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -520,7 +510,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -554,7 +543,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -588,7 +576,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1022,7 +1009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECE5F3BD-B228-F047-B8B8-254279758354}" type="CELLRANGE">
+                    <a:fld id="{2A8429E9-C470-1049-8950-B55874285184}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1041,7 +1028,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1056,8 +1042,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F6F40C4-301E-034E-AD52-61CB8100C451}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{816E8FB2-9416-9941-9082-415A691FFDF3}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1090,8 +1076,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{362E9703-09EB-EA47-90BD-0372650D8F46}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{396E501E-AC12-0648-912E-F4B689FF69F5}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1199,13 +1185,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18990</c:v>
+                  <c:v>17668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24819</c:v>
+                  <c:v>21283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9398</c:v>
+                  <c:v>6958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,10 +1206,10 @@
                     <c:v>40%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>45%</c:v>
+                    <c:v>46%</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>52%</c:v>
+                    <c:v>53%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1268,7 +1254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7632E5AD-2ACE-A94E-8481-45862A71BC14}" type="CELLRANGE">
+                    <a:fld id="{4AD6E955-D191-8F47-8CF5-B91D49A79DE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1287,7 +1273,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1302,8 +1287,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6E401BC-CF8A-A34F-9B89-EE16F7172638}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{26709748-9D3A-B54D-A7DC-53D5C0FFA4B3}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1336,8 +1321,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7483555-E2D0-0040-8225-C2216A032090}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E5D2A733-E1E7-CF4D-B183-B1FC66299CE8}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1445,13 +1430,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28936</c:v>
+                  <c:v>26578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30440</c:v>
+                  <c:v>25289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8623</c:v>
+                  <c:v>6175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,10 +1451,10 @@
                     <c:v>60%</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>55%</c:v>
+                    <c:v>54%</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>48%</c:v>
+                    <c:v>47%</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2848,7 +2833,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3136,7 +3121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3279,7 +3264,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3300,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18990</v>
+        <v>17668</v>
       </c>
       <c r="C2">
-        <v>24819</v>
+        <v>21283</v>
       </c>
       <c r="D2">
-        <v>9398</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3314,13 +3299,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>28936</v>
+        <v>26578</v>
       </c>
       <c r="C3">
-        <v>30440</v>
+        <v>25289</v>
       </c>
       <c r="D3">
-        <v>8623</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3329,15 +3314,15 @@
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>47926</v>
+        <v>44246</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:D4" si="0">SUM(C2:C3)</f>
-        <v>55259</v>
+        <v>46572</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>18021</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3357,15 +3342,15 @@
       </c>
       <c r="B9" s="6">
         <f>B2/B4</f>
-        <v>0.3962358636230856</v>
+        <v>0.39931293224246261</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ref="C9:D10" si="1">C2/C4</f>
-        <v>0.44913950668669356</v>
+        <f t="shared" ref="C9:D9" si="1">C2/C4</f>
+        <v>0.45699132525981279</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>0.52150269130458904</v>
+        <v>0.5298104012792203</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3374,15 +3359,15 @@
       </c>
       <c r="B10" s="6">
         <f>B3/B4</f>
-        <v>0.6037641363769144</v>
+        <v>0.60068706775753744</v>
       </c>
       <c r="C10" s="6">
         <f>C3/C4</f>
-        <v>0.55086049331330644</v>
+        <v>0.54300867474018721</v>
       </c>
       <c r="D10" s="6">
         <f>D3/D4</f>
-        <v>0.47849730869541091</v>
+        <v>0.4701895987207797</v>
       </c>
     </row>
   </sheetData>
